--- a/модуль организации деятельности/Категории риска по ТУ для расчета доли нереализованного риска1.xlsx
+++ b/модуль организации деятельности/Категории риска по ТУ для расчета доли нереализованного риска1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaitsev_ad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaitsev_ad\PycharmProjects\ERKNM\модуль организации деятельности\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,7 +1015,7 @@
         <v>5342.0889024585094</v>
       </c>
       <c r="F4" s="4">
-        <v>0.9969337964119992</v>
+        <v>0.99693379641199897</v>
       </c>
       <c r="G4" s="3">
         <v>2.0868283999999999</v>
@@ -3989,7 +3989,7 @@
   <dimension ref="B1:Y88"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4123,7 +4123,7 @@
         <v>21.478494832877658</v>
       </c>
       <c r="S4" s="13">
-        <f t="shared" ref="S4:S35" si="7">1-R4/$R$2</f>
+        <f>1-R4/$R$2</f>
         <v>0.99849001545699567</v>
       </c>
       <c r="U4" t="s">
@@ -4181,7 +4181,7 @@
         <v>62.400824466833441</v>
       </c>
       <c r="S5" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="S4:S35" si="7">1-R5/$R$2</f>
         <v>0.99561308736255505</v>
       </c>
       <c r="U5" t="s">
@@ -7824,18 +7824,18 @@
         <v>7.3999999999999996E-5</v>
       </c>
       <c r="O68" s="9">
-        <f t="shared" ref="O68:O99" si="21">SUM(J68:N68)</f>
+        <f t="shared" ref="O68:O88" si="21">SUM(J68:N68)</f>
         <v>2.8368199999999999</v>
       </c>
       <c r="Q68" s="14">
         <v>53.197603872632293</v>
       </c>
       <c r="R68">
-        <f t="shared" ref="R68:R99" si="22">Q68/O68</f>
+        <f t="shared" ref="R68:R88" si="22">Q68/O68</f>
         <v>18.752548230988324</v>
       </c>
       <c r="S68" s="13">
-        <f t="shared" ref="S68:S99" si="23">1-R68/$R$2</f>
+        <f t="shared" ref="S68:S88" si="23">1-R68/$R$2</f>
         <v>0.99868165538641973</v>
       </c>
       <c r="U68" t="s">
@@ -9020,8 +9020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U88"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="S2" sqref="S1:S1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12837,18 +12837,18 @@
         <v>4.4799999999999998E-5</v>
       </c>
       <c r="O68" s="9">
-        <f t="shared" ref="O68:O99" si="21">SUM(J68:N68)</f>
+        <f t="shared" ref="O68:O88" si="21">SUM(J68:N68)</f>
         <v>0.73340080000000007</v>
       </c>
       <c r="Q68">
         <v>0</v>
       </c>
       <c r="R68">
-        <f t="shared" ref="R68:R99" si="22">Q68/O68</f>
+        <f t="shared" ref="R68:R88" si="22">Q68/O68</f>
         <v>0</v>
       </c>
       <c r="S68" s="13">
-        <f t="shared" ref="S68:S99" si="23">1-R68/$R$2</f>
+        <f t="shared" ref="S68:S88" si="23">1-R68/$R$2</f>
         <v>1</v>
       </c>
       <c r="U68" t="s">
@@ -17871,18 +17871,18 @@
         <v>7.3999999999999996E-5</v>
       </c>
       <c r="O68" s="9">
-        <f t="shared" ref="O68:O99" si="21">SUM(J68:N68)</f>
+        <f t="shared" ref="O68:O88" si="21">SUM(J68:N68)</f>
         <v>2.8368199999999999</v>
       </c>
       <c r="Q68">
         <v>12152.52321408044</v>
       </c>
       <c r="R68">
-        <f t="shared" ref="R68:R99" si="22">Q68/O68</f>
+        <f t="shared" ref="R68:R88" si="22">Q68/O68</f>
         <v>4283.8541797084199</v>
       </c>
       <c r="S68" s="13">
-        <f t="shared" ref="S68:S99" si="23">1-R68/$R$2</f>
+        <f t="shared" ref="S68:S88" si="23">1-R68/$R$2</f>
         <v>0.9948688903674251</v>
       </c>
       <c r="Y68" t="s">
